--- a/FunctionalTesting.xlsx
+++ b/FunctionalTesting.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Functional testing TAFE_library_organiser</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>Selecting a parameter to filter by updates the list of books correctly</t>
+  </si>
+  <si>
+    <t>Book details added correctly</t>
+  </si>
+  <si>
+    <t>Tester name</t>
+  </si>
+  <si>
+    <t>Test date</t>
   </si>
 </sst>
 </file>
@@ -403,52 +412,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="77.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
+    <col min="2" max="4" width="14.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
